--- a/MyGridBot/Work/Setting.xlsx
+++ b/MyGridBot/Work/Setting.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyGridBot\Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A36B8E5-C7D8-4FD8-AF37-77836294FFEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6268FEC0-7EDA-43C8-9C0D-D7B61D06179F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="3525" windowWidth="30540" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="30540" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -415,7 +415,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/MyGridBot/Work/Setting.xlsx
+++ b/MyGridBot/Work/Setting.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyGridBot\Work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UNIFIED\MyGridBot\Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6268FEC0-7EDA-43C8-9C0D-D7B61D06179F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F82F5F-8742-4EC3-9FC0-0F36EDF75F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="30540" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3015" yWindow="2595" windowWidth="33645" windowHeight="18360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -415,7 +415,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
